--- a/data/trans_orig/P36BPD13_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F8EA804-50CE-4E38-8BF8-8E423F2ED1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D899EF64-771F-4270-8888-DCDDF662ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C181CA0-1EAC-4CF1-A83B-29E0482AD615}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{052F226D-8AEE-49FE-9D7E-396722ECACC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -74,346 +74,340 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>92,36%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>6,13%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,16 +416,16 @@
     <t>78,99%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>79,2%</t>
+    <t>79,35%</t>
   </si>
   <si>
     <t>89,79%</t>
@@ -440,19 +434,16 @@
     <t>81,32%</t>
   </si>
   <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>78,46%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>16,84%</t>
@@ -461,16 +452,13 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>20,8%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>21,54%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,16 +467,16 @@
     <t>91,52%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>93,71%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>86,72%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>90,29%</t>
@@ -497,28 +485,28 @@
     <t>88,71%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>91,7%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>6,29%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>13,28%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>8,3%</t>
   </si>
   <si>
     <t>11,29%</t>
@@ -527,55 +515,55 @@
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83DD8F5-E18A-43D1-8023-9773448D590F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53EC517-AC2D-45C3-8F4C-47575D9205A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,13 +1597,13 @@
         <v>687175</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1618,13 @@
         <v>33906</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -1645,13 +1633,13 @@
         <v>23791</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -1660,13 +1648,13 @@
         <v>57697</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1710,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1722,13 @@
         <v>191333</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>468</v>
@@ -1749,13 +1737,13 @@
         <v>220284</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>740</v>
@@ -1764,13 +1752,13 @@
         <v>411617</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1773,13 @@
         <v>4665</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1800,13 +1788,13 @@
         <v>10393</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1815,13 +1803,13 @@
         <v>15058</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1877,13 @@
         <v>256133</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>443</v>
@@ -1904,13 +1892,13 @@
         <v>265123</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>789</v>
@@ -1919,13 +1907,13 @@
         <v>521256</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1928,13 @@
         <v>20164</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -1955,13 +1943,13 @@
         <v>10499</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -1970,13 +1958,13 @@
         <v>30664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2032,13 @@
         <v>492972</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>765</v>
@@ -2059,13 +2047,13 @@
         <v>657477</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>1237</v>
@@ -2074,13 +2062,13 @@
         <v>1150449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2083,13 @@
         <v>131092</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -2110,13 +2098,13 @@
         <v>133183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
@@ -2125,13 +2113,13 @@
         <v>264275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2187,13 @@
         <v>784663</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>954</v>
@@ -2214,13 +2202,13 @@
         <v>772132</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>1640</v>
@@ -2229,13 +2217,13 @@
         <v>1556795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2238,13 @@
         <v>72710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -2265,13 +2253,13 @@
         <v>94686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
@@ -2280,13 +2268,13 @@
         <v>167396</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2342,13 @@
         <v>2843073</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>4728</v>
@@ -2369,13 +2357,13 @@
         <v>3335843</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>7613</v>
@@ -2384,13 +2372,13 @@
         <v>6178915</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2393,13 @@
         <v>521449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>598</v>
@@ -2420,13 +2408,13 @@
         <v>442981</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>1066</v>
@@ -2435,13 +2423,13 @@
         <v>964431</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD13_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D899EF64-771F-4270-8888-DCDDF662ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB76FF50-9F46-4BF4-9B47-420E520E5366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{052F226D-8AEE-49FE-9D7E-396722ECACC8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{70F24371-B249-4EA6-A9C5-4BD4943FEC60}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>95,65%</t>
+    <t>95,75%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,58 +134,58 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,373 +197,385 @@
     <t>81,29%</t>
   </si>
   <si>
-    <t>89,12%</t>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53EC517-AC2D-45C3-8F4C-47575D9205A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F3B8D-86BD-4A30-9B57-9F51C4E1D57B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1099,7 +1111,7 @@
         <v>318</v>
       </c>
       <c r="D4" s="7">
-        <v>247815</v>
+        <v>296726</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,7 +1126,7 @@
         <v>529</v>
       </c>
       <c r="I4" s="7">
-        <v>267376</v>
+        <v>285484</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1129,7 +1141,7 @@
         <v>847</v>
       </c>
       <c r="N4" s="7">
-        <v>515190</v>
+        <v>582210</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1150,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>11259</v>
+        <v>13185</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1165,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>4027</v>
+        <v>4151</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1180,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>15286</v>
+        <v>17336</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1201,7 +1213,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259074</v>
+        <v>309911</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1216,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1231,7 +1243,7 @@
         <v>868</v>
       </c>
       <c r="N6" s="7">
-        <v>530476</v>
+        <v>599546</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1254,7 +1266,7 @@
         <v>230</v>
       </c>
       <c r="D7" s="7">
-        <v>315638</v>
+        <v>318128</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1269,7 +1281,7 @@
         <v>539</v>
       </c>
       <c r="I7" s="7">
-        <v>420331</v>
+        <v>390505</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1284,7 +1296,7 @@
         <v>769</v>
       </c>
       <c r="N7" s="7">
-        <v>735969</v>
+        <v>708634</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1305,7 +1317,7 @@
         <v>151</v>
       </c>
       <c r="D8" s="7">
-        <v>202296</v>
+        <v>198986</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1320,7 +1332,7 @@
         <v>177</v>
       </c>
       <c r="I8" s="7">
-        <v>133513</v>
+        <v>123805</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1335,7 +1347,7 @@
         <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>335809</v>
+        <v>322791</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1356,7 +1368,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517934</v>
+        <v>517114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1371,7 +1383,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553844</v>
+        <v>514310</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1386,7 +1398,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071778</v>
+        <v>1031425</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1409,7 +1421,7 @@
         <v>301</v>
       </c>
       <c r="D10" s="7">
-        <v>268511</v>
+        <v>263453</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1424,7 +1436,7 @@
         <v>477</v>
       </c>
       <c r="I10" s="7">
-        <v>331952</v>
+        <v>310675</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1439,7 +1451,7 @@
         <v>778</v>
       </c>
       <c r="N10" s="7">
-        <v>600463</v>
+        <v>574128</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1460,7 +1472,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>45358</v>
+        <v>44515</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1475,7 +1487,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>32889</v>
+        <v>30574</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1490,7 +1502,7 @@
         <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>78247</v>
+        <v>75089</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1511,7 +1523,7 @@
         <v>350</v>
       </c>
       <c r="D12" s="7">
-        <v>313869</v>
+        <v>307968</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1526,7 +1538,7 @@
         <v>523</v>
       </c>
       <c r="I12" s="7">
-        <v>364841</v>
+        <v>341249</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1541,7 +1553,7 @@
         <v>873</v>
       </c>
       <c r="N12" s="7">
-        <v>678710</v>
+        <v>649217</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1564,7 +1576,7 @@
         <v>260</v>
       </c>
       <c r="D13" s="7">
-        <v>286006</v>
+        <v>278413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1579,7 +1591,7 @@
         <v>553</v>
       </c>
       <c r="I13" s="7">
-        <v>401169</v>
+        <v>450301</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1594,13 +1606,13 @@
         <v>813</v>
       </c>
       <c r="N13" s="7">
-        <v>687175</v>
+        <v>728714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>77</v>
@@ -1615,7 +1627,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>33906</v>
+        <v>31849</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1630,7 +1642,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>23791</v>
+        <v>22149</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1645,16 +1657,16 @@
         <v>71</v>
       </c>
       <c r="N14" s="7">
-        <v>57697</v>
+        <v>53998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,7 +1678,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="7">
-        <v>319912</v>
+        <v>310262</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1681,7 +1693,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>424960</v>
+        <v>472450</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1696,7 +1708,7 @@
         <v>884</v>
       </c>
       <c r="N15" s="7">
-        <v>744872</v>
+        <v>782712</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1719,7 +1731,7 @@
         <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>191333</v>
+        <v>173856</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1734,7 +1746,7 @@
         <v>468</v>
       </c>
       <c r="I16" s="7">
-        <v>220284</v>
+        <v>198036</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1749,7 +1761,7 @@
         <v>740</v>
       </c>
       <c r="N16" s="7">
-        <v>411617</v>
+        <v>371892</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1770,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>4665</v>
+        <v>4213</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -1785,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>10393</v>
+        <v>9487</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -1800,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>15058</v>
+        <v>13700</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1821,7 +1833,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195998</v>
+        <v>178069</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1848,7 @@
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230677</v>
+        <v>207523</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1851,7 +1863,7 @@
         <v>767</v>
       </c>
       <c r="N18" s="7">
-        <v>426675</v>
+        <v>385592</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1874,7 +1886,7 @@
         <v>346</v>
       </c>
       <c r="D19" s="7">
-        <v>256133</v>
+        <v>249338</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -1889,7 +1901,7 @@
         <v>443</v>
       </c>
       <c r="I19" s="7">
-        <v>265123</v>
+        <v>247441</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -1904,7 +1916,7 @@
         <v>789</v>
       </c>
       <c r="N19" s="7">
-        <v>521256</v>
+        <v>496778</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -1925,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>20164</v>
+        <v>19420</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -1940,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="7">
-        <v>10499</v>
+        <v>9615</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -1955,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="N20" s="7">
-        <v>30664</v>
+        <v>29035</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1976,7 +1988,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276297</v>
+        <v>268758</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1991,7 +2003,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2006,7 +2018,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>551920</v>
+        <v>525813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2029,7 +2041,7 @@
         <v>472</v>
       </c>
       <c r="D22" s="7">
-        <v>492972</v>
+        <v>491666</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>125</v>
@@ -2044,7 +2056,7 @@
         <v>765</v>
       </c>
       <c r="I22" s="7">
-        <v>657477</v>
+        <v>712357</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>128</v>
@@ -2059,7 +2071,7 @@
         <v>1237</v>
       </c>
       <c r="N22" s="7">
-        <v>1150449</v>
+        <v>1204022</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -2068,7 +2080,7 @@
         <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,46 +2092,46 @@
         <v>122</v>
       </c>
       <c r="D23" s="7">
-        <v>131092</v>
+        <v>129125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
       </c>
       <c r="I23" s="7">
-        <v>133183</v>
+        <v>124434</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
       </c>
       <c r="N23" s="7">
-        <v>264275</v>
+        <v>253560</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2143,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>624064</v>
+        <v>620791</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2146,7 +2158,7 @@
         <v>946</v>
       </c>
       <c r="I24" s="7">
-        <v>790660</v>
+        <v>836791</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2161,7 +2173,7 @@
         <v>1540</v>
       </c>
       <c r="N24" s="7">
-        <v>1414724</v>
+        <v>1457582</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2175,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2184,46 +2196,46 @@
         <v>686</v>
       </c>
       <c r="D25" s="7">
-        <v>784663</v>
+        <v>865026</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>954</v>
       </c>
       <c r="I25" s="7">
-        <v>772132</v>
+        <v>638858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>1640</v>
       </c>
       <c r="N25" s="7">
-        <v>1556795</v>
+        <v>1503884</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,46 +2247,46 @@
         <v>74</v>
       </c>
       <c r="D26" s="7">
-        <v>72710</v>
+        <v>61957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
       </c>
       <c r="I26" s="7">
-        <v>94686</v>
+        <v>77519</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
       </c>
       <c r="N26" s="7">
-        <v>167396</v>
+        <v>139476</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2298,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857373</v>
+        <v>926983</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2301,7 +2313,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866818</v>
+        <v>716377</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2316,7 +2328,7 @@
         <v>1820</v>
       </c>
       <c r="N27" s="7">
-        <v>1724191</v>
+        <v>1643360</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2339,46 +2351,46 @@
         <v>2885</v>
       </c>
       <c r="D28" s="7">
-        <v>2843073</v>
+        <v>2936605</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>4728</v>
       </c>
       <c r="I28" s="7">
-        <v>3335843</v>
+        <v>3233657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>7613</v>
       </c>
       <c r="N28" s="7">
-        <v>6178915</v>
+        <v>6170262</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,46 +2402,46 @@
         <v>468</v>
       </c>
       <c r="D29" s="7">
-        <v>521449</v>
+        <v>503251</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>598</v>
       </c>
       <c r="I29" s="7">
-        <v>442981</v>
+        <v>401733</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1066</v>
       </c>
       <c r="N29" s="7">
-        <v>964431</v>
+        <v>904984</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2453,7 @@
         <v>3353</v>
       </c>
       <c r="D30" s="7">
-        <v>3364522</v>
+        <v>3439856</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2456,7 +2468,7 @@
         <v>5326</v>
       </c>
       <c r="I30" s="7">
-        <v>3778824</v>
+        <v>3635390</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2471,7 +2483,7 @@
         <v>8679</v>
       </c>
       <c r="N30" s="7">
-        <v>7143346</v>
+        <v>7075246</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
